--- a/Daily_Progress.xlsx
+++ b/Daily_Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -36,6 +36,19 @@
   <si>
     <t xml:space="preserve">Basically, I can understand UniCell is a good DNN structure to do deconvolution, and this paper mainly talks about how to train the model. Maybe tomorrow I can start with the last example about the cancer cell. </t>
   </si>
+  <si>
+    <t xml:space="preserve">1.last example of the method
+</t>
+  </si>
+  <si>
+    <t>After reading the example, I am still confused about the methodology. Maybe I need to find some real cases that are easier to understand. The main reason is there are so many medical terminologies in the paper.</t>
+  </si>
+  <si>
+    <t>1.reading "Graph neural networks: A review of methods and applications"</t>
+  </si>
+  <si>
+    <t>I mainly learned the pipeline of creating a GNN for a specific task. But to be honest, there are a lot of things I do not understand, especially of the computational modules part. Maybe the best way to solve this problem is to read the more basic paper to learn the basics of GNN, such that I can have a better understanding of mathmatic terminologies.</t>
+  </si>
 </sst>
 </file>
 
@@ -47,14 +60,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,152 +516,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,9 +674,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -994,13 +997,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="95.1428571428571" style="2" customWidth="1"/>
@@ -1022,10 +1025,10 @@
       <c r="A2" s="4">
         <v>45310</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1033,11 +1036,33 @@
       <c r="A3" s="4">
         <v>45311</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="45" spans="1:3">
+      <c r="A4" s="4">
+        <v>45312</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="75" spans="1:3">
+      <c r="A5" s="4">
+        <v>45313</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Progress.xlsx
+++ b/Daily_Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>I mainly learned the pipeline of creating a GNN for a specific task. But to be honest, there are a lot of things I do not understand, especially of the computational modules part. Maybe the best way to solve this problem is to read the more basic paper to learn the basics of GNN, such that I can have a better understanding of mathmatic terminologies.</t>
+  </si>
+  <si>
+    <t>1.reading"Genomics of Drug Sensitivity in Cancer (GDSC) a resource for therapeutic biomarker discovery in cancer cells"
+2.reading "RefDNN a reference drug based neural network for more accurate prediction of anticancer drug resistance"
+3.Using t-sne to observe the dataset used in refDNN</t>
+  </si>
+  <si>
+    <t>Today the main reward is learning the structure of the refdnn. The github repository can provide the details in code, and this is what I can learn later.  As for the data, after using t-sne, I found there are not obviously distinguishable cell types. Maybe two?  Tomorrow's task would be focuing on the details of GNN, and I think that's the key for my thesis.</t>
   </si>
 </sst>
 </file>
@@ -997,13 +1005,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="95.1428571428571" style="2" customWidth="1"/>
@@ -1065,6 +1073,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" ht="75" spans="1:3">
+      <c r="A6" s="4">
+        <v>45314</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Daily_Progress.xlsx
+++ b/Daily_Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -56,6 +56,13 @@
   </si>
   <si>
     <t>Today the main reward is learning the structure of the refdnn. The github repository can provide the details in code, and this is what I can learn later.  As for the data, after using t-sne, I found there are not obviously distinguishable cell types. Maybe two?  Tomorrow's task would be focuing on the details of GNN, and I think that's the key for my thesis.</t>
+  </si>
+  <si>
+    <t>1.reading"A Gentle Introduction to Graph Neural Networks" and watched relavant videos
+2.Reading the slides of the thesis requirement</t>
+  </si>
+  <si>
+    <t>After reading this, I got some basis ideas about the GNN, that helped me better understanding the  basics of this NN and the key points in the previous slides.</t>
   </si>
 </sst>
 </file>
@@ -1005,13 +1012,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="95.1428571428571" style="2" customWidth="1"/>
@@ -1084,6 +1091,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" ht="30" spans="1:3">
+      <c r="A7" s="4">
+        <v>45315</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Daily_Progress.xlsx
+++ b/Daily_Progress.xlsx
@@ -34,31 +34,30 @@
     <t>Read the discussion part and Methods part"Interpretable and context-free deconvolu_x0002_tion of multi-scale whole transcriptomic datawith UniCell deconvolve"</t>
   </si>
   <si>
-    <t xml:space="preserve">Basically, I can understand UniCell is a good DNN structure to do deconvolution, and this paper mainly talks about how to train the model. Maybe tomorrow I can start with the last example about the cancer cell. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.last example of the method
-</t>
+    <t>Basically, I can understand UniCell is a good DNN structure to do deconvolution, and this paper mainly talks about how to train the model. Maybe tomorrow I can start with the last example about the cancer cell.</t>
+  </si>
+  <si>
+    <t>Read last example of the method</t>
   </si>
   <si>
     <t>After reading the example, I am still confused about the methodology. Maybe I need to find some real cases that are easier to understand. The main reason is there are so many medical terminologies in the paper.</t>
   </si>
   <si>
-    <t>1.reading "Graph neural networks: A review of methods and applications"</t>
+    <t>read "Graph neural networks: A review of methods and applications"</t>
   </si>
   <si>
     <t>I mainly learned the pipeline of creating a GNN for a specific task. But to be honest, there are a lot of things I do not understand, especially of the computational modules part. Maybe the best way to solve this problem is to read the more basic paper to learn the basics of GNN, such that I can have a better understanding of mathmatic terminologies.</t>
   </si>
   <si>
-    <t>1.reading"Genomics of Drug Sensitivity in Cancer (GDSC) a resource for therapeutic biomarker discovery in cancer cells"
-2.reading "RefDNN a reference drug based neural network for more accurate prediction of anticancer drug resistance"
+    <t>Read"Genomics of Drug Sensitivity in Cancer (GDSC) a resource for therapeutic biomarker discovery in cancer cells"
+Read "RefDNN a reference drug based neural network for more accurate prediction of anticancer drug resistance"
 3.Using t-sne to observe the dataset used in refDNN</t>
   </si>
   <si>
     <t>Today the main reward is learning the structure of the refdnn. The github repository can provide the details in code, and this is what I can learn later.  As for the data, after using t-sne, I found there are not obviously distinguishable cell types. Maybe two?  Tomorrow's task would be focuing on the details of GNN, and I think that's the key for my thesis.</t>
   </si>
   <si>
-    <t>1.reading"A Gentle Introduction to Graph Neural Networks" and watched relavant videos
+    <t>Read"A Gentle Introduction to Graph Neural Networks" and watched relavant videos
 2.Reading the slides of the thesis requirement</t>
   </si>
   <si>
@@ -1015,7 +1014,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>

--- a/Daily_Progress.xlsx
+++ b/Daily_Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -51,17 +51,23 @@
   <si>
     <t>Read"Genomics of Drug Sensitivity in Cancer (GDSC) a resource for therapeutic biomarker discovery in cancer cells"
 Read "RefDNN a reference drug based neural network for more accurate prediction of anticancer drug resistance"
-3.Using t-sne to observe the dataset used in refDNN</t>
+Using t-sne to observe the dataset used in refDNN</t>
   </si>
   <si>
     <t>Today the main reward is learning the structure of the refdnn. The github repository can provide the details in code, and this is what I can learn later.  As for the data, after using t-sne, I found there are not obviously distinguishable cell types. Maybe two?  Tomorrow's task would be focuing on the details of GNN, and I think that's the key for my thesis.</t>
   </si>
   <si>
     <t>Read"A Gentle Introduction to Graph Neural Networks" and watched relavant videos
-2.Reading the slides of the thesis requirement</t>
+Reading the slides of the thesis requirement</t>
   </si>
   <si>
     <t>After reading this, I got some basis ideas about the GNN, that helped me better understanding the  basics of this NN and the key points in the previous slides.</t>
+  </si>
+  <si>
+    <t>Review previous papers and summarize the key points, which is preparation for  proposal seminar</t>
+  </si>
+  <si>
+    <t>After that I have a better understanding of what I have covered. Unfortunately, I just found there are several similar studies about the GNN part on the net. That means I have to finish a lot of tasks in the rest of days. This is not an easy task.</t>
   </si>
 </sst>
 </file>
@@ -1011,13 +1017,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="95.1428571428571" style="2" customWidth="1"/>
@@ -1101,6 +1107,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" ht="45" spans="1:3">
+      <c r="A8" s="4">
+        <v>45316</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Daily_Progress.xlsx
+++ b/Daily_Progress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12210"/>
+    <workbookView windowWidth="25860" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -68,6 +68,38 @@
   </si>
   <si>
     <t>After that I have a better understanding of what I have covered. Unfortunately, I just found there are several similar studies about the GNN part on the net. That means I have to finish a lot of tasks in the rest of days. This is not an easy task.</t>
+  </si>
+  <si>
+    <t>Summarize the key points of the rest of previous slides
+Have a discussion with Mr.Oleg to decide the next direction</t>
+  </si>
+  <si>
+    <t>It seems I have to read more slides to finish my thesis, and the previous papers are not very useful.</t>
+  </si>
+  <si>
+    <t>Write mail to yelin to make sure the structure of the graph input
+read papers to search for the best deconvolution method</t>
+  </si>
+  <si>
+    <t>read papers to search for the best deconvolution method and summarize some questions about the dataset used in the thesis</t>
+  </si>
+  <si>
+    <t>Have a meething with yelin can learn the graph structure and how to get this kind of graph
+Read Graph Convolutional Network for Drug Response Prediction Using Gene Expression Data</t>
+  </si>
+  <si>
+    <t>I did not find the available dataset. After discussing with yelin, I have a clearer understanding of which graph structure I can use and how to use cell-type data to construct such graphs.</t>
+  </si>
+  <si>
+    <t>Read Graph Convolutional Network for Drug Response Prediction Using Gene Expression Data
+read Graph convolutional networks a comprehensive review</t>
+  </si>
+  <si>
+    <t>By reading relevant materials, I have found the right GNN structure.</t>
+  </si>
+  <si>
+    <t>Finish my thesis proposal seminar ppt
+Find the the idea of dealing with deconvolution process</t>
   </si>
 </sst>
 </file>
@@ -1017,13 +1049,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="95.1428571428571" style="2" customWidth="1"/>
@@ -1118,6 +1150,63 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" ht="30" spans="1:3">
+      <c r="A9" s="4">
+        <v>45317</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="30" spans="1:2">
+      <c r="A10" s="4">
+        <v>45318</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:2">
+      <c r="A11" s="4">
+        <v>45319</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="45" spans="1:3">
+      <c r="A12" s="4">
+        <v>45320</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:3">
+      <c r="A13" s="4">
+        <v>45321</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:2">
+      <c r="A14" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Daily_Progress.xlsx
+++ b/Daily_Progress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25860" windowHeight="9075"/>
+    <workbookView windowWidth="27945" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,11 @@
   <si>
     <t>Finish my thesis proposal seminar ppt
 Find the the idea of dealing with deconvolution process</t>
+  </si>
+  <si>
+    <t>Install pytorch
+Watch videos to learn pytorch basics and for GNN
+summarize the questions I met so far and prepared for seminars</t>
   </si>
 </sst>
 </file>
@@ -112,8 +117,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -583,137 +596,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -729,6 +742,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1049,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1207,7 +1223,26 @@
         <v>25</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
+        <v>45325</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" ht="34" customHeight="1" spans="1:3">
+      <c r="A16" s="4">
+        <v>45326</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
